--- a/biology/Botanique/Jonc_nain/Jonc_nain.xlsx
+++ b/biology/Botanique/Jonc_nain/Jonc_nain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juncus pygmaeus
 Le Jonc nain (Juncus pygmaeus) est une espèce de plantes annuelle du genre Juncus (joncs), de la famille des Juncaceae. 
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Le jonc nain est une plante annuelle de 3 à 12 cm de hauteur, à tiges dressées, très grêles, munie de une à deux feuilles dépassant l'inflorescence ; les feuilles sont minces et effilées, à gaines terminées par 2 petites oreillettes ; les feuilles basales ne dépassant généralement pas la tige[1].
-Appareil reproducteur
-Les fleurs sont verdâtres ou rougeâtres, groupées par 3 à 8 au sommet de la tige en glomérules, plus ou moins longuement pédonculées (certaines restent sessiles). La bractée foliacée est presque aussi longue que l'inflorescence ; les tépales étroits, allongés, sont rapprochés au sommet, aigus. Les étamines sont au nombre de trois ; le fruit est oblong, atténué au sommet. La floraison a lieu de juin à septembre[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jonc nain est une plante annuelle de 3 à 12 cm de hauteur, à tiges dressées, très grêles, munie de une à deux feuilles dépassant l'inflorescence ; les feuilles sont minces et effilées, à gaines terminées par 2 petites oreillettes ; les feuilles basales ne dépassant généralement pas la tige.
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est une espèce originaire de région méditerranéenne et de la façade atlantique, présente en Europe et en Afrique du Nord. En France, son aire de répartition est discontinue : elle est présente dans le Centre, l'ouest (surtout le sud-ouest), la région méditerranéenne, l’Île-de-France[1].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont verdâtres ou rougeâtres, groupées par 3 à 8 au sommet de la tige en glomérules, plus ou moins longuement pédonculées (certaines restent sessiles). La bractée foliacée est presque aussi longue que l'inflorescence ; les tépales étroits, allongés, sont rapprochés au sommet, aigus. Les étamines sont au nombre de trois ; le fruit est oblong, atténué au sommet. La floraison a lieu de juin à septembre.
 </t>
         </is>
       </c>
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante des pelouses inondables sur terrains siliceux. Elle pousse jusqu'à une altitude de 800 m[2].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce originaire de région méditerranéenne et de la façade atlantique, présente en Europe et en Afrique du Nord. En France, son aire de répartition est discontinue : elle est présente dans le Centre, l'ouest (surtout le sud-ouest), la région méditerranéenne, l’Île-de-France.
 </t>
         </is>
       </c>
@@ -605,17 +628,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante des pelouses inondables sur terrains siliceux. Elle pousse jusqu'à une altitude de 800 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jonc_nain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jonc_nain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Juncinella pygmaea (Rich.) Fourr., 1869
 Juncus bicephalus Viv., 1824
 Juncus minae Mattir., 1893
 Juncus nanus Dubois, 1803
 Juncus pygmaeus var. bicephalus sensu Guin. &amp; R.Vilm., 1978
-Juncus pygmaeus var. bicephalus (Viv.) Buchenau, 1906[3]</t>
+Juncus pygmaeus var. bicephalus (Viv.) Buchenau, 1906</t>
         </is>
       </c>
     </row>
